--- a/certificados.xlsx
+++ b/certificados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fran\IEEE\certificate-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21AB97C-4DE5-4004-B1A4-F45C2E4FCF32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB9BBC8-24EB-4B2E-9CB2-5B60EFB8DCD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>Ariel Nowik</t>
-  </si>
-  <si>
-    <t>Olivia De Vincenti</t>
-  </si>
-  <si>
-    <t>Matías Nuñez</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="316">
   <si>
     <t>Nombre Archivo</t>
   </si>
@@ -42,14 +33,953 @@
     <t>Nombre Certificado</t>
   </si>
   <si>
-    <t>Matias Sebastian Lopez Martinez</t>
+    <t>blackrnag@gmail.com</t>
+  </si>
+  <si>
+    <t>erixaudixio@gmail.com</t>
+  </si>
+  <si>
+    <t>pupibruja@gmail.com</t>
+  </si>
+  <si>
+    <t>Pol Sanchez Canales</t>
+  </si>
+  <si>
+    <t>Ángeles Elsa Wehle</t>
+  </si>
+  <si>
+    <t>Sofía Orieta Vasquez</t>
+  </si>
+  <si>
+    <t>Cintia Laura Groves</t>
+  </si>
+  <si>
+    <t>Fernando Ezequiel Pose</t>
+  </si>
+  <si>
+    <t>Nicolás Vincenti</t>
+  </si>
+  <si>
+    <t>Nicolás Cacheda</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Pehuén Santiago Naranjo</t>
+  </si>
+  <si>
+    <t>Lucas Bautista</t>
+  </si>
+  <si>
+    <t>Mateo Macias</t>
+  </si>
+  <si>
+    <t>Matias Pacchy</t>
+  </si>
+  <si>
+    <t>Gonzalo Latorre</t>
+  </si>
+  <si>
+    <t>Ricardo Dejtiar</t>
+  </si>
+  <si>
+    <t>Juan Gonzalez</t>
+  </si>
+  <si>
+    <t>Maximiliano Barneto</t>
+  </si>
+  <si>
+    <t>Alvaro Ojeda</t>
+  </si>
+  <si>
+    <t>Ian Vila</t>
+  </si>
+  <si>
+    <t>Cristian Agustín Villalonga Agüero</t>
+  </si>
+  <si>
+    <t>Rosa Micaela Serra</t>
+  </si>
+  <si>
+    <t>Diego Montero</t>
+  </si>
+  <si>
+    <t>Josefina Bertoni</t>
+  </si>
+  <si>
+    <t>Lucila Goicoechea</t>
+  </si>
+  <si>
+    <t>Paula Humero</t>
+  </si>
+  <si>
+    <t>Joaquin Peña</t>
+  </si>
+  <si>
+    <t>Sol Victoria Anselmo</t>
+  </si>
+  <si>
+    <t>Milagros Cornidez</t>
+  </si>
+  <si>
+    <t>Nicolás Marconi</t>
+  </si>
+  <si>
+    <t>María Florencia Balbuena Massaro</t>
+  </si>
+  <si>
+    <t>Agustin Demarco</t>
+  </si>
+  <si>
+    <t>Agustín Nicolás de la Rosa</t>
+  </si>
+  <si>
+    <t>Gabriel Morbello</t>
+  </si>
+  <si>
+    <t>Maricel Micaela Goyeneche</t>
+  </si>
+  <si>
+    <t>Yejin Cho</t>
+  </si>
+  <si>
+    <t>Alexia Park</t>
+  </si>
+  <si>
+    <t>Christian Escalada</t>
+  </si>
+  <si>
+    <t>Uriel Paluch</t>
+  </si>
+  <si>
+    <t>Paula Julia Balza</t>
+  </si>
+  <si>
+    <t>Leandro Martin Nieto</t>
+  </si>
+  <si>
+    <t>Matilda Florencia Zalazar</t>
+  </si>
+  <si>
+    <t>Simón Mellino</t>
+  </si>
+  <si>
+    <t>Guillermo Silva</t>
+  </si>
+  <si>
+    <t>Leila Salomonsky</t>
+  </si>
+  <si>
+    <t>Juan Cruz Salas</t>
+  </si>
+  <si>
+    <t>Ignacio Aguilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florencia Alejandra Rodríguez </t>
+  </si>
+  <si>
+    <t>Tomás Valentín Dos Reis</t>
+  </si>
+  <si>
+    <t>Guido Scarpati Soto</t>
+  </si>
+  <si>
+    <t>Manuel Dizenhaus</t>
+  </si>
+  <si>
+    <t>Martin Carrizo</t>
+  </si>
+  <si>
+    <t>Franco Lucio Tambosco</t>
+  </si>
+  <si>
+    <t>Mathias García</t>
+  </si>
+  <si>
+    <t>Matias Dogliani</t>
+  </si>
+  <si>
+    <t>Santiago Punteri</t>
+  </si>
+  <si>
+    <t>Luciano Ferro</t>
+  </si>
+  <si>
+    <t>Gian Cortese</t>
+  </si>
+  <si>
+    <t>Rodrigo Aramendi</t>
+  </si>
+  <si>
+    <t>Magdalena Victoria Sticco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Thomas Leiber Bravo </t>
+  </si>
+  <si>
+    <t>Agustin Manuel Huidobro</t>
+  </si>
+  <si>
+    <t>Leonardo Castagnari</t>
+  </si>
+  <si>
+    <t>Francisco Ferro</t>
+  </si>
+  <si>
+    <t>Mauro Casadio</t>
+  </si>
+  <si>
+    <t>Camila Sperman</t>
+  </si>
+  <si>
+    <t>Juan Eduardo Cantarini</t>
+  </si>
+  <si>
+    <t>Antual Busca Canosa</t>
+  </si>
+  <si>
+    <t>Mauricio Gabriel Bonvin</t>
+  </si>
+  <si>
+    <t>María Victoria Acosta Tasende</t>
+  </si>
+  <si>
+    <t>Leonel Rodolfo Mateo</t>
+  </si>
+  <si>
+    <t>Agustin Rodolfo Alvarez</t>
+  </si>
+  <si>
+    <t>Javier Fernández Scianca</t>
+  </si>
+  <si>
+    <t>Florencia Elena Mastrandrea</t>
+  </si>
+  <si>
+    <t>Franco Scarcasale</t>
+  </si>
+  <si>
+    <t>Lautaro Ezequiel Bollini</t>
+  </si>
+  <si>
+    <t>Agustin Strusberg</t>
+  </si>
+  <si>
+    <t>Lucía Tallone</t>
+  </si>
+  <si>
+    <t>Fabricio Nahuel Noguera Carlos</t>
+  </si>
+  <si>
+    <t>Lucas Revale</t>
+  </si>
+  <si>
+    <t>Thomas Revale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriana Leschiutta </t>
+  </si>
+  <si>
+    <t>Gastón Lucas Taborda</t>
+  </si>
+  <si>
+    <t>Camila Medele</t>
+  </si>
+  <si>
+    <t>Pablo Mora</t>
+  </si>
+  <si>
+    <t>Pablo Andrés Arce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graterol Lorena </t>
+  </si>
+  <si>
+    <t>Guillermo Schinelli</t>
+  </si>
+  <si>
+    <t>Brisa Margot Noguera Carlos</t>
+  </si>
+  <si>
+    <t>Damián Ezequiel Sergi</t>
+  </si>
+  <si>
+    <t>Adrian Milciades Sbardella Gavilan</t>
+  </si>
+  <si>
+    <t>Ezequiel Graziano</t>
+  </si>
+  <si>
+    <t>Natalia Landrobe</t>
+  </si>
+  <si>
+    <t>Federico Anús</t>
+  </si>
+  <si>
+    <t>Augusto Bublath</t>
+  </si>
+  <si>
+    <t>Matias Caffetti</t>
+  </si>
+  <si>
+    <t>Luciana Gesusmaria</t>
+  </si>
+  <si>
+    <t>Matías Campana</t>
+  </si>
+  <si>
+    <t>Tomás Waisburd</t>
+  </si>
+  <si>
+    <t>Walter Torres</t>
+  </si>
+  <si>
+    <t>Hugo Pastorino</t>
+  </si>
+  <si>
+    <t>Joaquín Pereira</t>
+  </si>
+  <si>
+    <t>Pedro Vassena</t>
+  </si>
+  <si>
+    <t>Nicolas Lambardi</t>
+  </si>
+  <si>
+    <t>Victoria Artana</t>
+  </si>
+  <si>
+    <t>Leandro Iván Blodorn</t>
+  </si>
+  <si>
+    <t>Ximena Aldana Sebatico</t>
+  </si>
+  <si>
+    <t>Sonia Elizabeth Salcedo Gomez</t>
+  </si>
+  <si>
+    <t>Nicolás Pierini</t>
+  </si>
+  <si>
+    <t>Julieta Garcea</t>
+  </si>
+  <si>
+    <t>Matías Mendoza</t>
+  </si>
+  <si>
+    <t>Maximiliano Fabián Isea</t>
+  </si>
+  <si>
+    <t>Alejandro Paul Morales</t>
+  </si>
+  <si>
+    <t>Ezequiel Quiroga</t>
+  </si>
+  <si>
+    <t>Gabriela Ysabel Gonzalez Sierra</t>
+  </si>
+  <si>
+    <t>Delfina Babajano</t>
+  </si>
+  <si>
+    <t>Alejandro Agustin Lemos Musi</t>
+  </si>
+  <si>
+    <t>Alex Obes</t>
+  </si>
+  <si>
+    <t>Daniela Mariana Bertolini</t>
+  </si>
+  <si>
+    <t>Martin Gabriel Wehle</t>
+  </si>
+  <si>
+    <t>Priscila Solange Fernández</t>
+  </si>
+  <si>
+    <t>Pablo Fortin</t>
+  </si>
+  <si>
+    <t>Agustina Manzo</t>
+  </si>
+  <si>
+    <t>Gastón Salinas</t>
+  </si>
+  <si>
+    <t>Nicolás Franco Persichini</t>
+  </si>
+  <si>
+    <t>Juan Zeman</t>
+  </si>
+  <si>
+    <t>Fermín Torres Zavaleta</t>
+  </si>
+  <si>
+    <t>Baltasar Parra</t>
+  </si>
+  <si>
+    <t>Alejandro Andrés Caviglia</t>
+  </si>
+  <si>
+    <t>Lucas Mestanza</t>
+  </si>
+  <si>
+    <t>Nahuel Esteban Casá</t>
+  </si>
+  <si>
+    <t>Donato Valenzuela</t>
+  </si>
+  <si>
+    <t>Maria Malena Petrolo Irazabal</t>
+  </si>
+  <si>
+    <t>Renata Silvia Guatelli</t>
+  </si>
+  <si>
+    <t>Federico Ceridono</t>
+  </si>
+  <si>
+    <t>Domingo Fermin Amadeo Lastra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Cybulski </t>
+  </si>
+  <si>
+    <t>Facundo Nahuel Diaz</t>
+  </si>
+  <si>
+    <t>Francisco Santiago Céccoli</t>
+  </si>
+  <si>
+    <t>Santiago Tenembaum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastián Miguel Ferraris </t>
+  </si>
+  <si>
+    <t>Rodrigo Isaac Guzmán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Ignacio Llaryora </t>
+  </si>
+  <si>
+    <t>Martin Oroz</t>
+  </si>
+  <si>
+    <t>Juliana Streitemberger</t>
+  </si>
+  <si>
+    <t>Mariano Edelman</t>
+  </si>
+  <si>
+    <t>Alejandro Notari Olmos</t>
+  </si>
+  <si>
+    <t>Ramiro Notari Olmos</t>
+  </si>
+  <si>
+    <t>Brisabed Alexandra Marchan Figuera</t>
+  </si>
+  <si>
+    <t>Nicolás Professi</t>
+  </si>
+  <si>
+    <t>Rodrigo Morón</t>
+  </si>
+  <si>
+    <t>Lucas Fernando Oronel</t>
+  </si>
+  <si>
+    <t>Lucia María del Pilar Arcas</t>
+  </si>
+  <si>
+    <t>Luis Matias Oronel Quiroga</t>
+  </si>
+  <si>
+    <t>Javier Magdalena</t>
+  </si>
+  <si>
+    <t>Sebastian Zangoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guillermo Sebastián Neme Simonetti</t>
+  </si>
+  <si>
+    <t>Iván Nicolás Patera</t>
+  </si>
+  <si>
+    <t>Jorge Miguel Hadad Menegaz</t>
+  </si>
+  <si>
+    <t>Daniel Suárez</t>
+  </si>
+  <si>
+    <t>Lucas Franco Cañas</t>
+  </si>
+  <si>
+    <t>Joaquin Perles</t>
+  </si>
+  <si>
+    <t>Julian Allende</t>
+  </si>
+  <si>
+    <t>Sebastián Alejandro Cerda Lipanovich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadia Florencia Alaniz </t>
+  </si>
+  <si>
+    <t>Valentín Reynoso</t>
+  </si>
+  <si>
+    <t>Guido Mazza</t>
+  </si>
+  <si>
+    <t>Mariano Codorniu</t>
+  </si>
+  <si>
+    <t>Facundo Nahuel Lahittette</t>
+  </si>
+  <si>
+    <t>Ramiro Nicolás Flor</t>
+  </si>
+  <si>
+    <t>Edgardo Rodrigo Díaz</t>
+  </si>
+  <si>
+    <t>Elliott Exequiel Rosatto</t>
+  </si>
+  <si>
+    <t>Jairo Emanuel Lemos Musi</t>
+  </si>
+  <si>
+    <t>Felipe Giovannelli</t>
+  </si>
+  <si>
+    <t>Leandro Algañaraz</t>
+  </si>
+  <si>
+    <t>Juan Carlos Vallini</t>
+  </si>
+  <si>
+    <t>Agustina Mouly</t>
+  </si>
+  <si>
+    <t>Valentina Moscato</t>
+  </si>
+  <si>
+    <t>Valentina Llorens</t>
+  </si>
+  <si>
+    <t>Joaquín Rafael Montes</t>
+  </si>
+  <si>
+    <t>Kaylee Haggerty</t>
+  </si>
+  <si>
+    <t>Leonardo Rafael Ferrante</t>
+  </si>
+  <si>
+    <t>Santiago Carranza</t>
+  </si>
+  <si>
+    <t>Victoria Sepp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomás Danko </t>
+  </si>
+  <si>
+    <t>Lourdes Molinatti</t>
+  </si>
+  <si>
+    <t>Juan Ignacio Martocq</t>
+  </si>
+  <si>
+    <t>Federico Fernández Montero</t>
+  </si>
+  <si>
+    <t>Facundo Montero</t>
+  </si>
+  <si>
+    <t>Arturo Moyano</t>
+  </si>
+  <si>
+    <t>Luis Gonzalo Oudin</t>
+  </si>
+  <si>
+    <t>Camila Huergo</t>
+  </si>
+  <si>
+    <t>Rafael Romani</t>
+  </si>
+  <si>
+    <t>Pilar Garaventa</t>
+  </si>
+  <si>
+    <t>Tomer Damián Cohen Mizrahi</t>
+  </si>
+  <si>
+    <t>Ricardo Germán Molina</t>
+  </si>
+  <si>
+    <t>Ricardo Martín Labaronnie</t>
+  </si>
+  <si>
+    <t>Martín Trejo</t>
+  </si>
+  <si>
+    <t>Mariano Rolón</t>
+  </si>
+  <si>
+    <t>Ornella Iannini</t>
+  </si>
+  <si>
+    <t>Agustina Belen Pivato</t>
+  </si>
+  <si>
+    <t>Matias Fernando Gonzalez Falbo</t>
+  </si>
+  <si>
+    <t>Facundo Alarcón</t>
+  </si>
+  <si>
+    <t>Lautaro Ezequiel Chigal</t>
+  </si>
+  <si>
+    <t>Carolina Zangoni</t>
+  </si>
+  <si>
+    <t>Mirko Susich</t>
+  </si>
+  <si>
+    <t>Federico Caffaro</t>
+  </si>
+  <si>
+    <t>Lucila Bonaventura</t>
+  </si>
+  <si>
+    <t>Nicolas Cozzi</t>
+  </si>
+  <si>
+    <t>Juan Manuel Cazorla</t>
+  </si>
+  <si>
+    <t>Ignacio Gomez Mercado</t>
+  </si>
+  <si>
+    <t>Marco Tamolonis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan José Zannier Díaz </t>
+  </si>
+  <si>
+    <t>Juan Agustin Avila</t>
+  </si>
+  <si>
+    <t>Leandro Filardo</t>
+  </si>
+  <si>
+    <t>Khamil Abdel Nazer</t>
+  </si>
+  <si>
+    <t>Sebastián Gabriel Sosa</t>
+  </si>
+  <si>
+    <t>Elías Joaquín Isa</t>
+  </si>
+  <si>
+    <t>Emmanuel Heinzen</t>
+  </si>
+  <si>
+    <t>Tomas Sujovolsky</t>
+  </si>
+  <si>
+    <t>Nicolás Valentini</t>
+  </si>
+  <si>
+    <t>Ignacio Bosco</t>
+  </si>
+  <si>
+    <t>Andrés Giménez</t>
+  </si>
+  <si>
+    <t>Manuel Fernández</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Wajnsztok </t>
+  </si>
+  <si>
+    <t>Ari Karzovinik</t>
+  </si>
+  <si>
+    <t>Ignacio Manfredini</t>
+  </si>
+  <si>
+    <t>Julian Ezequiel Lahittette</t>
+  </si>
+  <si>
+    <t>Mathias Nahuel Lagomarsino</t>
+  </si>
+  <si>
+    <t>Guido Palazzo</t>
+  </si>
+  <si>
+    <t>Luis Fernando Velez Gomez</t>
+  </si>
+  <si>
+    <t>Sebastian Schuschny</t>
+  </si>
+  <si>
+    <t>Emmanuel Bevacqua Ruzo</t>
+  </si>
+  <si>
+    <t>Valentina Llanos Pontaut</t>
+  </si>
+  <si>
+    <t>Juan Targize</t>
+  </si>
+  <si>
+    <t>Pedro Oliveri</t>
+  </si>
+  <si>
+    <t>Lautaro Sánchez De La Fuente</t>
+  </si>
+  <si>
+    <t>Pablo Martinez</t>
+  </si>
+  <si>
+    <t>Javier Fondevila</t>
+  </si>
+  <si>
+    <t>William Alexander Karsten</t>
+  </si>
+  <si>
+    <t>Iñaki Arango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josué Castilla Rollán </t>
+  </si>
+  <si>
+    <t>Tatiana Belén Biagioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franco Santiago Raimondi </t>
+  </si>
+  <si>
+    <t>José Quisbert Mendoza</t>
+  </si>
+  <si>
+    <t>Andrea Verde</t>
+  </si>
+  <si>
+    <t>Emanuel Somoza</t>
+  </si>
+  <si>
+    <t>Gianfranco Sampaoli</t>
+  </si>
+  <si>
+    <t>Melanie Toledo</t>
+  </si>
+  <si>
+    <t>Tomas Alejandro Palazzo</t>
+  </si>
+  <si>
+    <t>Máximo Joaquín Magadan</t>
+  </si>
+  <si>
+    <t>Juan Francisco Dalla Torre</t>
+  </si>
+  <si>
+    <t>Juan Ignacio Torre</t>
+  </si>
+  <si>
+    <t>Tobías Alejo Rumiz</t>
+  </si>
+  <si>
+    <t>Conrado Beatriz</t>
+  </si>
+  <si>
+    <t>Juan Ignacio Antonelli</t>
+  </si>
+  <si>
+    <t>Lucas Monzon</t>
+  </si>
+  <si>
+    <t>Bianca Antonella Madori</t>
+  </si>
+  <si>
+    <t>Mateo Cristobal</t>
+  </si>
+  <si>
+    <t>Ernesto Dainesi</t>
+  </si>
+  <si>
+    <t>Tomas Gabriel Rossi</t>
+  </si>
+  <si>
+    <t>Matias Gabriel Picon</t>
+  </si>
+  <si>
+    <t>Santiago Javier Caram</t>
+  </si>
+  <si>
+    <t>Paloma Aqueveque Cuetos</t>
+  </si>
+  <si>
+    <t>Roman Mettler</t>
+  </si>
+  <si>
+    <t>Fernando Sandoval</t>
+  </si>
+  <si>
+    <t>Álvaro González Christiansen</t>
+  </si>
+  <si>
+    <t>Santiago Lopez</t>
+  </si>
+  <si>
+    <t>Roberto Zeniquel</t>
+  </si>
+  <si>
+    <t>Luciano Felisiak</t>
+  </si>
+  <si>
+    <t>Tomás Ignacio Gianni</t>
+  </si>
+  <si>
+    <t>Fernando Somoza</t>
+  </si>
+  <si>
+    <t>Josefina Zárate</t>
+  </si>
+  <si>
+    <t>Sofia Corrado</t>
+  </si>
+  <si>
+    <t>Claudio Pactat</t>
+  </si>
+  <si>
+    <t>Carlos Jonatan Bordon</t>
+  </si>
+  <si>
+    <t>Analia Daniela Mendez</t>
+  </si>
+  <si>
+    <t>Tomás McCluskey</t>
+  </si>
+  <si>
+    <t>Selene Martínez</t>
+  </si>
+  <si>
+    <t>Magdalena Nottebohm</t>
+  </si>
+  <si>
+    <t>Magdalena Sívori</t>
+  </si>
+  <si>
+    <t>Santiago Gabriel Piscicelli</t>
+  </si>
+  <si>
+    <t>Kevin Emanuel Ramirez Silva</t>
+  </si>
+  <si>
+    <t>Rafael Anderson Cobeñas Berriel</t>
+  </si>
+  <si>
+    <t>Cristóbal Manuel Cortés</t>
+  </si>
+  <si>
+    <t>Fernanda Belen Cattaneo</t>
+  </si>
+  <si>
+    <t>Tomás Diego Máspero</t>
+  </si>
+  <si>
+    <t>Franco Adrián Toñanes</t>
+  </si>
+  <si>
+    <t>Lucas Parzianello</t>
+  </si>
+  <si>
+    <t>Emanuel Jalle</t>
+  </si>
+  <si>
+    <t>Gonzalo Alfredo Martone</t>
+  </si>
+  <si>
+    <t>Jorge Bareiro</t>
+  </si>
+  <si>
+    <t>Javier Darío Vigilante</t>
+  </si>
+  <si>
+    <t>Tobias Madariaga</t>
+  </si>
+  <si>
+    <t>Adan Javier Acevedo</t>
+  </si>
+  <si>
+    <t>Alberto Pereyra</t>
+  </si>
+  <si>
+    <t>Lorenzo Queralt</t>
+  </si>
+  <si>
+    <t>Mateo Marpez</t>
+  </si>
+  <si>
+    <t>Yeremy Alejandro Rincon Armas</t>
+  </si>
+  <si>
+    <t>Nicolas Farfan</t>
+  </si>
+  <si>
+    <t>Florencia Maceiro</t>
+  </si>
+  <si>
+    <t>Julian Andres Bogado</t>
+  </si>
+  <si>
+    <t>Alan Gustavo Bitsch</t>
+  </si>
+  <si>
+    <t>Iván Stephan</t>
+  </si>
+  <si>
+    <t>Lucas Villani</t>
+  </si>
+  <si>
+    <t>Franco Joaquín Avincetto</t>
+  </si>
+  <si>
+    <t>Ian Xavier Vigilante</t>
+  </si>
+  <si>
+    <t>Luciana Saenz Tidone</t>
+  </si>
+  <si>
+    <t>Alejandro David Gellendorf</t>
+  </si>
+  <si>
+    <t>Ariel Cacho Mendoza</t>
+  </si>
+  <si>
+    <t>Martín Vartaberian</t>
+  </si>
+  <si>
+    <t>Agustín Nicolás De La Rosa</t>
+  </si>
+  <si>
+    <t>Eduardo Carlos Vizcarra Savino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,8 +987,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,8 +1032,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,16 +1053,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FC48F367-40D6-4B67-9FB7-79C2E54F4EA5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,59 +1400,2854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="35">
+        <v>1</v>
+      </c>
+      <c r="B41" s="35">
+        <v>1</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="F85" s="34"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F99" s="32"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="18"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F125" s="19"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F132" s="20"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F133" s="21"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F149" s="22"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F166" s="23"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F185" s="24"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F196" s="25"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B212" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F212" s="37"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B215" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="F215" s="33"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="35">
+        <v>2</v>
+      </c>
+      <c r="B217" s="35">
+        <v>2</v>
+      </c>
+      <c r="F217" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J217" s="38"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B219" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B220" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B221" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B228" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B231" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B232" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B233" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="35">
+        <v>3</v>
+      </c>
+      <c r="B234" s="35">
+        <v>3</v>
+      </c>
+      <c r="F234" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B235" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B236" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B238" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B239" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B240" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B241" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B242" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B243" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B244" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B245" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B246" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B247" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B248" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B249" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B250" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B251" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B252" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B253" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B254" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B255" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B256" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B257" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B258" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B259" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F259" s="26"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B260" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B261" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B262" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F262" s="33"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B263" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B264" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B265" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B266" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B267" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B268" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B269" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B270" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B271" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B272" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B273" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B274" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B275" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B276" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B277" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B278" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B279" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B280" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="B281" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B282" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B283" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B284" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B285" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="B286" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B287" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="F287" s="27"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B288" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B289" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B290" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="F290" s="28"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B291" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B292" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B293" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="B294" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B295" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="F295" s="29"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B296" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B297" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B298" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B299" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B300" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="B301" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F301" s="33"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B302" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B303" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F303" s="31"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B304" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B305" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B306" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B307" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B308" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B309" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B310" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="F311" s="33"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B312" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B313" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B314" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F314" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F234" r:id="rId1" xr:uid="{324D0053-F780-41F5-9AEA-A9422BA77E21}"/>
+    <hyperlink ref="F217" r:id="rId2" xr:uid="{6932957F-3811-452E-9CB1-73A402A2A9F7}"/>
+    <hyperlink ref="F41" r:id="rId3" xr:uid="{CE887852-6851-4A90-A9F4-AE6D620B2E16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/certificados.xlsx
+++ b/certificados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fran\IEEE\certificate-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB9BBC8-24EB-4B2E-9CB2-5B60EFB8DCD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B32714C-7434-4BA4-947A-AA5271A7AF72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
